--- a/biology/Botanique/Trentepohlia_umbrina/Trentepohlia_umbrina.xlsx
+++ b/biology/Botanique/Trentepohlia_umbrina/Trentepohlia_umbrina.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Trentepohlia umbrina est une Algue verte de couleur brun orangé que l'on trouve sur l'écorce des chênes.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Aspect poudreux d'amas unicellulaires, formant également des filaments.
 La couleur brun orangé s'explique par l'accumulation de pigments caroténoïdes qui masquent la chlorophylle.
@@ -543,9 +557,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Martius donne le nom du genre en 1817 en hommage au botaniste allemand Johann Friedrich Trentepohl (de)[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Martius donne le nom du genre en 1817 en hommage au botaniste allemand Johann Friedrich Trentepohl (de).
 </t>
         </is>
       </c>
@@ -574,7 +590,9 @@
           <t>Synonymie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Chroolepus umbrinum Kutz., 1843
 Phycopeltis umbrina (Kutz.) Thompson &amp; Wujek, 1997
